--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 3.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 3.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Improvement (%)</t>
+          <t>HyperElasticOdgen-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,31 +516,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.960000000000001</v>
+        <v>-23.09</v>
       </c>
       <c r="F2" t="n">
-        <v>74.29000000000001</v>
+        <v>103.31</v>
       </c>
       <c r="G2" t="n">
-        <v>68.19</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2.27</v>
+        <v>-24.14</v>
       </c>
       <c r="I2" t="n">
-        <v>73.34999999999999</v>
+        <v>112.19</v>
       </c>
       <c r="J2" t="n">
-        <v>75.18000000000001</v>
+        <v>90.36</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.26</v>
+        <v>-18.78</v>
       </c>
       <c r="L2" t="n">
-        <v>79.48</v>
+        <v>108.49</v>
       </c>
       <c r="M2" t="n">
-        <v>77.11</v>
+        <v>91.33</v>
       </c>
     </row>
     <row r="3">
@@ -559,31 +559,31 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>7.25</v>
+        <v>3.04</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27</v>
+        <v>62.57</v>
       </c>
       <c r="G3" t="n">
-        <v>69.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>8.06</v>
+        <v>8.98</v>
       </c>
       <c r="I3" t="n">
-        <v>67.20999999999999</v>
+        <v>63.39</v>
       </c>
       <c r="J3" t="n">
-        <v>73.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>22.93</v>
+        <v>16.2</v>
       </c>
       <c r="L3" t="n">
-        <v>62.91</v>
+        <v>62.65</v>
       </c>
       <c r="M3" t="n">
-        <v>81.59999999999999</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="4">
@@ -602,31 +602,31 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.81</v>
+        <v>-66.2</v>
       </c>
       <c r="F4" t="n">
-        <v>63.08</v>
+        <v>118.68</v>
       </c>
       <c r="G4" t="n">
-        <v>60.25</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>6.07</v>
+        <v>-28.7</v>
       </c>
       <c r="I4" t="n">
-        <v>64.08</v>
+        <v>101.51</v>
       </c>
       <c r="J4" t="n">
-        <v>68.29000000000001</v>
+        <v>78.86</v>
       </c>
       <c r="K4" t="n">
-        <v>14.08</v>
+        <v>-28.95</v>
       </c>
       <c r="L4" t="n">
-        <v>61.3</v>
+        <v>104.27</v>
       </c>
       <c r="M4" t="n">
-        <v>71.45999999999999</v>
+        <v>80.97</v>
       </c>
     </row>
     <row r="5">
@@ -645,31 +645,31 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.11</v>
+        <v>-343.28</v>
       </c>
       <c r="F5" t="n">
-        <v>61.51</v>
+        <v>344.06</v>
       </c>
       <c r="G5" t="n">
-        <v>59.07</v>
+        <v>77.58</v>
       </c>
       <c r="H5" t="n">
-        <v>12.17</v>
+        <v>-199.8</v>
       </c>
       <c r="I5" t="n">
-        <v>61.33</v>
+        <v>260.55</v>
       </c>
       <c r="J5" t="n">
-        <v>69.8</v>
+        <v>86.86</v>
       </c>
       <c r="K5" t="n">
-        <v>-49.64</v>
+        <v>-211.22</v>
       </c>
       <c r="L5" t="n">
-        <v>104.37</v>
+        <v>270.54</v>
       </c>
       <c r="M5" t="n">
-        <v>69.73999999999999</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>9.69</v>
+        <v>0.73</v>
       </c>
       <c r="F6" t="n">
-        <v>44.76</v>
+        <v>46.91</v>
       </c>
       <c r="G6" t="n">
-        <v>49.6</v>
+        <v>47.3</v>
       </c>
       <c r="H6" t="n">
-        <v>16.68</v>
+        <v>16.67</v>
       </c>
       <c r="I6" t="n">
-        <v>50.16</v>
+        <v>46.8</v>
       </c>
       <c r="J6" t="n">
-        <v>60.2</v>
+        <v>56.2</v>
       </c>
       <c r="K6" t="n">
-        <v>30.96</v>
+        <v>19.91</v>
       </c>
       <c r="L6" t="n">
-        <v>42.01</v>
+        <v>45.29</v>
       </c>
       <c r="M6" t="n">
-        <v>60.8</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="7">
@@ -731,31 +731,31 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.5</v>
+        <v>-226.69</v>
       </c>
       <c r="F7" t="n">
-        <v>58.08</v>
+        <v>211.69</v>
       </c>
       <c r="G7" t="n">
-        <v>55.6</v>
+        <v>64.83</v>
       </c>
       <c r="H7" t="n">
-        <v>16.75</v>
+        <v>-195.2</v>
       </c>
       <c r="I7" t="n">
-        <v>54.63</v>
+        <v>217.72</v>
       </c>
       <c r="J7" t="n">
-        <v>65.62</v>
+        <v>73.78</v>
       </c>
       <c r="K7" t="n">
-        <v>19.08</v>
+        <v>-182.73</v>
       </c>
       <c r="L7" t="n">
-        <v>53.34</v>
+        <v>208.73</v>
       </c>
       <c r="M7" t="n">
-        <v>65.90000000000001</v>
+        <v>73.83</v>
       </c>
     </row>
     <row r="8">
@@ -774,31 +774,31 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08</v>
+        <v>5.71</v>
       </c>
       <c r="F8" t="n">
-        <v>58.91</v>
+        <v>50.41</v>
       </c>
       <c r="G8" t="n">
-        <v>58.71</v>
+        <v>53.55</v>
       </c>
       <c r="H8" t="n">
-        <v>6.09</v>
+        <v>14.28</v>
       </c>
       <c r="I8" t="n">
-        <v>62.44</v>
+        <v>52.76</v>
       </c>
       <c r="J8" t="n">
-        <v>66.45</v>
+        <v>61.61</v>
       </c>
       <c r="K8" t="n">
-        <v>41.15</v>
+        <v>23.22</v>
       </c>
       <c r="L8" t="n">
-        <v>42.76</v>
+        <v>50.14</v>
       </c>
       <c r="M8" t="n">
-        <v>72.58</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="9">
@@ -817,31 +817,31 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1.12</v>
+        <v>-35.87</v>
       </c>
       <c r="F9" t="n">
-        <v>57.5</v>
+        <v>88.53</v>
       </c>
       <c r="G9" t="n">
-        <v>58.03</v>
+        <v>65.03</v>
       </c>
       <c r="H9" t="n">
-        <v>7.57</v>
+        <v>-33.47</v>
       </c>
       <c r="I9" t="n">
-        <v>61.93</v>
+        <v>98.69</v>
       </c>
       <c r="J9" t="n">
-        <v>66.92</v>
+        <v>73.91</v>
       </c>
       <c r="K9" t="n">
-        <v>13.86</v>
+        <v>-18.9</v>
       </c>
       <c r="L9" t="n">
-        <v>59.24</v>
+        <v>88.92</v>
       </c>
       <c r="M9" t="n">
-        <v>68.81</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="10">
@@ -860,31 +860,31 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9</v>
+        <v>16.41</v>
       </c>
       <c r="F10" t="n">
-        <v>45.52</v>
+        <v>35.42</v>
       </c>
       <c r="G10" t="n">
-        <v>45.14</v>
+        <v>42.33</v>
       </c>
       <c r="H10" t="n">
-        <v>25.93</v>
+        <v>33.49</v>
       </c>
       <c r="I10" t="n">
-        <v>43.53</v>
+        <v>36.21</v>
       </c>
       <c r="J10" t="n">
-        <v>58.78</v>
+        <v>54.46</v>
       </c>
       <c r="K10" t="n">
-        <v>37.61</v>
+        <v>30.87</v>
       </c>
       <c r="L10" t="n">
-        <v>37.49</v>
+        <v>37.84</v>
       </c>
       <c r="M10" t="n">
-        <v>60.08</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="11">
@@ -903,31 +903,31 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>5.52</v>
+        <v>-210.06</v>
       </c>
       <c r="F11" t="n">
-        <v>50.59</v>
+        <v>200.57</v>
       </c>
       <c r="G11" t="n">
-        <v>53.54</v>
+        <v>64.69</v>
       </c>
       <c r="H11" t="n">
-        <v>21.28</v>
+        <v>-193.28</v>
       </c>
       <c r="I11" t="n">
-        <v>51.65</v>
+        <v>220.89</v>
       </c>
       <c r="J11" t="n">
-        <v>65.59999999999999</v>
+        <v>75.31</v>
       </c>
       <c r="K11" t="n">
-        <v>-46.8</v>
+        <v>-212.91</v>
       </c>
       <c r="L11" t="n">
-        <v>97.53</v>
+        <v>236.95</v>
       </c>
       <c r="M11" t="n">
-        <v>66.41</v>
+        <v>75.69</v>
       </c>
     </row>
     <row r="12">
@@ -946,31 +946,31 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="F12" t="n">
-        <v>219.53</v>
+        <v>288.48</v>
       </c>
       <c r="G12" t="n">
-        <v>221.26</v>
+        <v>288.55</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I12" t="n">
-        <v>220.91</v>
+        <v>288.64</v>
       </c>
       <c r="J12" t="n">
-        <v>221.03</v>
+        <v>288.79</v>
       </c>
       <c r="K12" t="n">
-        <v>4.69</v>
+        <v>3.16</v>
       </c>
       <c r="L12" t="n">
-        <v>223.59</v>
+        <v>290</v>
       </c>
       <c r="M12" t="n">
-        <v>234.58</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="13">
@@ -989,31 +989,31 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="F13" t="n">
-        <v>265.56</v>
+        <v>306.83</v>
       </c>
       <c r="G13" t="n">
-        <v>270</v>
+        <v>312.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I13" t="n">
-        <v>263.83</v>
+        <v>306.54</v>
       </c>
       <c r="J13" t="n">
-        <v>264.4</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>9.59</v>
+        <v>6.82</v>
       </c>
       <c r="L13" t="n">
-        <v>262.63</v>
+        <v>307.94</v>
       </c>
       <c r="M13" t="n">
-        <v>290.4</v>
+        <v>330.4</v>
       </c>
     </row>
     <row r="14">
@@ -1032,31 +1032,31 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="F14" t="n">
-        <v>174.67</v>
+        <v>217.02</v>
       </c>
       <c r="G14" t="n">
-        <v>175.48</v>
+        <v>217.48</v>
       </c>
       <c r="H14" t="n">
-        <v>0.24</v>
+        <v>0.61</v>
       </c>
       <c r="I14" t="n">
-        <v>175.87</v>
+        <v>217.33</v>
       </c>
       <c r="J14" t="n">
-        <v>176.55</v>
+        <v>218.76</v>
       </c>
       <c r="K14" t="n">
-        <v>7.05</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>173.55</v>
+        <v>217.57</v>
       </c>
       <c r="M14" t="n">
-        <v>186.78</v>
+        <v>227.08</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.22</v>
+        <v>-26.59</v>
       </c>
       <c r="F15" t="n">
-        <v>130.98</v>
+        <v>216.51</v>
       </c>
       <c r="G15" t="n">
-        <v>129.35</v>
+        <v>170.97</v>
       </c>
       <c r="H15" t="n">
-        <v>1.84</v>
+        <v>-16.05</v>
       </c>
       <c r="I15" t="n">
-        <v>131.8</v>
+        <v>203.43</v>
       </c>
       <c r="J15" t="n">
-        <v>134.22</v>
+        <v>175.26</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.1</v>
+        <v>-20.11</v>
       </c>
       <c r="L15" t="n">
-        <v>139.34</v>
+        <v>212.43</v>
       </c>
       <c r="M15" t="n">
-        <v>136.43</v>
+        <v>176.82</v>
       </c>
     </row>
     <row r="16">
@@ -1118,31 +1118,31 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1.41</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
-        <v>127.9</v>
+        <v>146.32</v>
       </c>
       <c r="G16" t="n">
-        <v>129.7</v>
+        <v>147.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
-        <v>129.78</v>
+        <v>146.8</v>
       </c>
       <c r="J16" t="n">
-        <v>132.3</v>
+        <v>149.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.39</v>
+        <v>4.26</v>
       </c>
       <c r="L16" t="n">
-        <v>130.44</v>
+        <v>146.7</v>
       </c>
       <c r="M16" t="n">
-        <v>136.4</v>
+        <v>153.2</v>
       </c>
     </row>
     <row r="17">
@@ -1161,31 +1161,31 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07000000000000001</v>
+        <v>-8.01</v>
       </c>
       <c r="F17" t="n">
-        <v>136.57</v>
+        <v>196.41</v>
       </c>
       <c r="G17" t="n">
-        <v>136.7</v>
+        <v>181.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.07</v>
+        <v>-2.57</v>
       </c>
       <c r="I17" t="n">
-        <v>138.22</v>
+        <v>190.19</v>
       </c>
       <c r="J17" t="n">
-        <v>141.15</v>
+        <v>185.46</v>
       </c>
       <c r="K17" t="n">
-        <v>17.4</v>
+        <v>-4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>118.06</v>
+        <v>195.79</v>
       </c>
       <c r="M17" t="n">
-        <v>142.95</v>
+        <v>186.87</v>
       </c>
     </row>
     <row r="18">
@@ -1204,31 +1204,31 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>3.3</v>
+        <v>0.73</v>
       </c>
       <c r="F18" t="n">
-        <v>108.92</v>
+        <v>125.88</v>
       </c>
       <c r="G18" t="n">
-        <v>112.64</v>
+        <v>126.79</v>
       </c>
       <c r="H18" t="n">
-        <v>5.74</v>
+        <v>5.15</v>
       </c>
       <c r="I18" t="n">
-        <v>112.13</v>
+        <v>126.02</v>
       </c>
       <c r="J18" t="n">
-        <v>118.96</v>
+        <v>132.88</v>
       </c>
       <c r="K18" t="n">
-        <v>9.85</v>
+        <v>7.52</v>
       </c>
       <c r="L18" t="n">
-        <v>109</v>
+        <v>124.1</v>
       </c>
       <c r="M18" t="n">
-        <v>120.9</v>
+        <v>134.2</v>
       </c>
     </row>
     <row r="19">
@@ -1247,31 +1247,31 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.7</v>
+        <v>0.15</v>
       </c>
       <c r="F19" t="n">
-        <v>106.03</v>
+        <v>129.7</v>
       </c>
       <c r="G19" t="n">
-        <v>113.64</v>
+        <v>129.86</v>
       </c>
       <c r="H19" t="n">
-        <v>5.48</v>
+        <v>4.07</v>
       </c>
       <c r="I19" t="n">
-        <v>113.18</v>
+        <v>129.83</v>
       </c>
       <c r="J19" t="n">
-        <v>119.71</v>
+        <v>135.3</v>
       </c>
       <c r="K19" t="n">
-        <v>13.72</v>
+        <v>6.41</v>
       </c>
       <c r="L19" t="n">
-        <v>104.95</v>
+        <v>127.94</v>
       </c>
       <c r="M19" t="n">
-        <v>121.62</v>
+        <v>136.66</v>
       </c>
     </row>
     <row r="20">
@@ -1290,31 +1290,31 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02</v>
+        <v>1.27</v>
       </c>
       <c r="F20" t="n">
-        <v>109.38</v>
+        <v>119.17</v>
       </c>
       <c r="G20" t="n">
-        <v>109.34</v>
+        <v>120.69</v>
       </c>
       <c r="H20" t="n">
-        <v>6.26</v>
+        <v>5.75</v>
       </c>
       <c r="I20" t="n">
-        <v>108.17</v>
+        <v>119.17</v>
       </c>
       <c r="J20" t="n">
-        <v>115.39</v>
+        <v>126.44</v>
       </c>
       <c r="K20" t="n">
-        <v>10.31</v>
+        <v>5.15</v>
       </c>
       <c r="L20" t="n">
-        <v>103.99</v>
+        <v>120.12</v>
       </c>
       <c r="M20" t="n">
-        <v>115.95</v>
+        <v>126.64</v>
       </c>
     </row>
     <row r="21">
@@ -1333,31 +1333,31 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1</v>
+        <v>-0.31</v>
       </c>
       <c r="F21" t="n">
-        <v>101.68</v>
+        <v>117.43</v>
       </c>
       <c r="G21" t="n">
-        <v>101.58</v>
+        <v>117.07</v>
       </c>
       <c r="H21" t="n">
-        <v>8.279999999999999</v>
+        <v>-5.36</v>
       </c>
       <c r="I21" t="n">
-        <v>100.52</v>
+        <v>131.73</v>
       </c>
       <c r="J21" t="n">
-        <v>109.61</v>
+        <v>125.04</v>
       </c>
       <c r="K21" t="n">
-        <v>17.6</v>
+        <v>2.27</v>
       </c>
       <c r="L21" t="n">
-        <v>90.7</v>
+        <v>121.86</v>
       </c>
       <c r="M21" t="n">
-        <v>110.07</v>
+        <v>124.69</v>
       </c>
     </row>
     <row r="22">
@@ -1376,31 +1376,31 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
       <c r="F22" t="n">
-        <v>409.02</v>
+        <v>488.65</v>
       </c>
       <c r="G22" t="n">
-        <v>415.83</v>
+        <v>494.22</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>409.83</v>
+        <v>488.39</v>
       </c>
       <c r="J22" t="n">
-        <v>409.8</v>
+        <v>488.19</v>
       </c>
       <c r="K22" t="n">
-        <v>6.92</v>
+        <v>4.89</v>
       </c>
       <c r="L22" t="n">
-        <v>407.07</v>
+        <v>488.74</v>
       </c>
       <c r="M22" t="n">
-        <v>437.19</v>
+        <v>513.8200000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1419,31 +1419,31 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>3.06</v>
+        <v>1.49</v>
       </c>
       <c r="F23" t="n">
-        <v>585.84</v>
+        <v>705.4</v>
       </c>
       <c r="G23" t="n">
-        <v>604.4</v>
+        <v>716</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>593.29</v>
+        <v>705.26</v>
       </c>
       <c r="J23" t="n">
-        <v>593.6</v>
+        <v>706</v>
       </c>
       <c r="K23" t="n">
-        <v>8.19</v>
+        <v>5.18</v>
       </c>
       <c r="L23" t="n">
-        <v>584.92</v>
+        <v>706.51</v>
       </c>
       <c r="M23" t="n">
-        <v>637.2</v>
+        <v>745.2</v>
       </c>
     </row>
     <row r="24">
@@ -1462,31 +1462,31 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.51</v>
+        <v>0.74</v>
       </c>
       <c r="F24" t="n">
-        <v>372.86</v>
+        <v>439.48</v>
       </c>
       <c r="G24" t="n">
-        <v>378.73</v>
+        <v>442.98</v>
       </c>
       <c r="H24" t="n">
         <v>0.02</v>
       </c>
       <c r="I24" t="n">
-        <v>374.31</v>
+        <v>439.05</v>
       </c>
       <c r="J24" t="n">
-        <v>374.56</v>
+        <v>439.47</v>
       </c>
       <c r="K24" t="n">
-        <v>4.84</v>
+        <v>3.52</v>
       </c>
       <c r="L24" t="n">
-        <v>374.13</v>
+        <v>439.42</v>
       </c>
       <c r="M24" t="n">
-        <v>393.42</v>
+        <v>455.7</v>
       </c>
     </row>
     <row r="25">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>216.64</v>
+        <v>267.86</v>
       </c>
       <c r="G25" t="n">
-        <v>215.22</v>
+        <v>265.43</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>217.86</v>
+        <v>267.89</v>
       </c>
       <c r="J25" t="n">
-        <v>217.99</v>
+        <v>268.02</v>
       </c>
       <c r="K25" t="n">
-        <v>2.94</v>
+        <v>2.11</v>
       </c>
       <c r="L25" t="n">
-        <v>215.91</v>
+        <v>266.13</v>
       </c>
       <c r="M25" t="n">
-        <v>222.49</v>
+        <v>271.9</v>
       </c>
     </row>
     <row r="26">
@@ -1548,31 +1548,31 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="F26" t="n">
-        <v>194.99</v>
+        <v>213.84</v>
       </c>
       <c r="G26" t="n">
-        <v>197.6</v>
+        <v>216.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.39</v>
+        <v>1.18</v>
       </c>
       <c r="I26" t="n">
-        <v>197.24</v>
+        <v>214.52</v>
       </c>
       <c r="J26" t="n">
-        <v>198</v>
+        <v>217.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.29</v>
+        <v>5.74</v>
       </c>
       <c r="L26" t="n">
-        <v>198.25</v>
+        <v>212.38</v>
       </c>
       <c r="M26" t="n">
-        <v>207.1</v>
+        <v>225.3</v>
       </c>
     </row>
     <row r="27">
@@ -1591,31 +1591,31 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.68</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>195.03</v>
+        <v>242.03</v>
       </c>
       <c r="G27" t="n">
-        <v>196.33</v>
+        <v>239.58</v>
       </c>
       <c r="H27" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="I27" t="n">
-        <v>198.95</v>
+        <v>241.7</v>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>242.71</v>
       </c>
       <c r="K27" t="n">
-        <v>8.73</v>
+        <v>0.95</v>
       </c>
       <c r="L27" t="n">
-        <v>185.78</v>
+        <v>243.39</v>
       </c>
       <c r="M27" t="n">
-        <v>203.51</v>
+        <v>245.68</v>
       </c>
     </row>
     <row r="28">
@@ -1634,31 +1634,31 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.17</v>
+        <v>2.6</v>
       </c>
       <c r="F28" t="n">
-        <v>137.81</v>
+        <v>137.53</v>
       </c>
       <c r="G28" t="n">
-        <v>138.06</v>
+        <v>141.19</v>
       </c>
       <c r="H28" t="n">
-        <v>6.31</v>
+        <v>5.55</v>
       </c>
       <c r="I28" t="n">
-        <v>135.24</v>
+        <v>140.03</v>
       </c>
       <c r="J28" t="n">
-        <v>144.35</v>
+        <v>148.27</v>
       </c>
       <c r="K28" t="n">
-        <v>6.27</v>
+        <v>7.19</v>
       </c>
       <c r="L28" t="n">
-        <v>136.79</v>
+        <v>138.63</v>
       </c>
       <c r="M28" t="n">
-        <v>145.94</v>
+        <v>149.38</v>
       </c>
     </row>
     <row r="29">
@@ -1677,31 +1677,31 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>3.15</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>135.18</v>
+        <v>142.49</v>
       </c>
       <c r="G29" t="n">
-        <v>139.57</v>
+        <v>142.15</v>
       </c>
       <c r="H29" t="n">
-        <v>5.37</v>
+        <v>5.95</v>
       </c>
       <c r="I29" t="n">
-        <v>138.73</v>
+        <v>141.18</v>
       </c>
       <c r="J29" t="n">
-        <v>146.6</v>
+        <v>150.13</v>
       </c>
       <c r="K29" t="n">
-        <v>9.57</v>
+        <v>7.83</v>
       </c>
       <c r="L29" t="n">
-        <v>133.34</v>
+        <v>138.55</v>
       </c>
       <c r="M29" t="n">
-        <v>147.46</v>
+        <v>150.32</v>
       </c>
     </row>
     <row r="30">
@@ -1720,31 +1720,31 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26</v>
+        <v>-0.06</v>
       </c>
       <c r="F30" t="n">
-        <v>121.97</v>
+        <v>125.61</v>
       </c>
       <c r="G30" t="n">
-        <v>122.29</v>
+        <v>125.53</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>8.51</v>
       </c>
       <c r="I30" t="n">
-        <v>121.78</v>
+        <v>122.27</v>
       </c>
       <c r="J30" t="n">
-        <v>130.67</v>
+        <v>133.65</v>
       </c>
       <c r="K30" t="n">
-        <v>9.99</v>
+        <v>7.71</v>
       </c>
       <c r="L30" t="n">
-        <v>118.18</v>
+        <v>123.49</v>
       </c>
       <c r="M30" t="n">
-        <v>131.3</v>
+        <v>133.8</v>
       </c>
     </row>
     <row r="31">
@@ -1763,31 +1763,31 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1.82</v>
+        <v>-7.48</v>
       </c>
       <c r="F31" t="n">
-        <v>128.52</v>
+        <v>152.17</v>
       </c>
       <c r="G31" t="n">
-        <v>130.9</v>
+        <v>141.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.68</v>
+        <v>-3.96</v>
       </c>
       <c r="I31" t="n">
-        <v>133.19</v>
+        <v>154.63</v>
       </c>
       <c r="J31" t="n">
-        <v>138.29</v>
+        <v>148.73</v>
       </c>
       <c r="K31" t="n">
-        <v>8.300000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="L31" t="n">
-        <v>127.21</v>
+        <v>139.93</v>
       </c>
       <c r="M31" t="n">
-        <v>138.72</v>
+        <v>148.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 3.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 3.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Improvement (%)</t>
+          <t>ARAP_NoGlobal-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-23.09</v>
+        <v>-5.26</v>
       </c>
       <c r="F2" t="n">
-        <v>103.31</v>
+        <v>88.34</v>
       </c>
       <c r="G2" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>-24.14</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>112.19</v>
+        <v>87.13</v>
       </c>
       <c r="J2" t="n">
         <v>90.36</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.78</v>
+        <v>-4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>108.49</v>
+        <v>95.72</v>
       </c>
       <c r="M2" t="n">
         <v>91.33</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3.04</v>
+        <v>2.06</v>
       </c>
       <c r="F3" t="n">
-        <v>62.57</v>
+        <v>63.2</v>
       </c>
       <c r="G3" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>8.98</v>
+        <v>9.75</v>
       </c>
       <c r="I3" t="n">
-        <v>63.39</v>
+        <v>62.85</v>
       </c>
       <c r="J3" t="n">
         <v>69.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>16.2</v>
+        <v>16.36</v>
       </c>
       <c r="L3" t="n">
-        <v>62.65</v>
+        <v>62.53</v>
       </c>
       <c r="M3" t="n">
         <v>74.8</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-66.2</v>
+        <v>-5.31</v>
       </c>
       <c r="F4" t="n">
-        <v>118.68</v>
+        <v>75.2</v>
       </c>
       <c r="G4" t="n">
         <v>71.45999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-28.7</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>101.51</v>
+        <v>75.56</v>
       </c>
       <c r="J4" t="n">
         <v>78.86</v>
       </c>
       <c r="K4" t="n">
-        <v>-28.95</v>
+        <v>10.53</v>
       </c>
       <c r="L4" t="n">
-        <v>104.27</v>
+        <v>72.34</v>
       </c>
       <c r="M4" t="n">
         <v>80.97</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-343.28</v>
+        <v>-15.94</v>
       </c>
       <c r="F5" t="n">
-        <v>344.06</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>77.58</v>
       </c>
       <c r="H5" t="n">
-        <v>-199.8</v>
+        <v>-14.34</v>
       </c>
       <c r="I5" t="n">
-        <v>260.55</v>
+        <v>99.37</v>
       </c>
       <c r="J5" t="n">
         <v>86.86</v>
       </c>
       <c r="K5" t="n">
-        <v>-211.22</v>
+        <v>-31.52</v>
       </c>
       <c r="L5" t="n">
-        <v>270.54</v>
+        <v>114.32</v>
       </c>
       <c r="M5" t="n">
         <v>86.92</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0.73</v>
+        <v>2.19</v>
       </c>
       <c r="F6" t="n">
-        <v>46.91</v>
+        <v>46.22</v>
       </c>
       <c r="G6" t="n">
         <v>47.3</v>
       </c>
       <c r="H6" t="n">
-        <v>16.67</v>
+        <v>23.73</v>
       </c>
       <c r="I6" t="n">
-        <v>46.8</v>
+        <v>42.83</v>
       </c>
       <c r="J6" t="n">
         <v>56.2</v>
       </c>
       <c r="K6" t="n">
-        <v>19.91</v>
+        <v>16.32</v>
       </c>
       <c r="L6" t="n">
-        <v>45.29</v>
+        <v>47.32</v>
       </c>
       <c r="M6" t="n">
         <v>56.5</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-226.69</v>
+        <v>-16.24</v>
       </c>
       <c r="F7" t="n">
-        <v>211.69</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>64.83</v>
       </c>
       <c r="H7" t="n">
-        <v>-195.2</v>
+        <v>-5.74</v>
       </c>
       <c r="I7" t="n">
-        <v>217.72</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>73.78</v>
       </c>
       <c r="K7" t="n">
-        <v>-182.73</v>
+        <v>-358.09</v>
       </c>
       <c r="L7" t="n">
-        <v>208.73</v>
+        <v>338.2</v>
       </c>
       <c r="M7" t="n">
         <v>73.83</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>5.71</v>
+        <v>9.25</v>
       </c>
       <c r="F8" t="n">
-        <v>50.41</v>
+        <v>48.52</v>
       </c>
       <c r="G8" t="n">
         <v>53.55</v>
       </c>
       <c r="H8" t="n">
-        <v>14.28</v>
+        <v>19.85</v>
       </c>
       <c r="I8" t="n">
-        <v>52.76</v>
+        <v>49.33</v>
       </c>
       <c r="J8" t="n">
         <v>61.61</v>
       </c>
       <c r="K8" t="n">
-        <v>23.22</v>
+        <v>28.12</v>
       </c>
       <c r="L8" t="n">
-        <v>50.14</v>
+        <v>46.94</v>
       </c>
       <c r="M8" t="n">
         <v>65.16</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-35.87</v>
+        <v>-4.74</v>
       </c>
       <c r="F9" t="n">
-        <v>88.53</v>
+        <v>68.25</v>
       </c>
       <c r="G9" t="n">
         <v>65.03</v>
       </c>
       <c r="H9" t="n">
-        <v>-33.47</v>
+        <v>7.95</v>
       </c>
       <c r="I9" t="n">
-        <v>98.69</v>
+        <v>68.06</v>
       </c>
       <c r="J9" t="n">
         <v>73.91</v>
       </c>
       <c r="K9" t="n">
-        <v>-18.9</v>
+        <v>11.72</v>
       </c>
       <c r="L9" t="n">
-        <v>88.92</v>
+        <v>66.02</v>
       </c>
       <c r="M9" t="n">
         <v>74.67</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>16.41</v>
+        <v>7.09</v>
       </c>
       <c r="F10" t="n">
-        <v>35.42</v>
+        <v>39.38</v>
       </c>
       <c r="G10" t="n">
         <v>42.33</v>
       </c>
       <c r="H10" t="n">
-        <v>33.49</v>
+        <v>31.23</v>
       </c>
       <c r="I10" t="n">
-        <v>36.21</v>
+        <v>37.44</v>
       </c>
       <c r="J10" t="n">
         <v>54.46</v>
       </c>
       <c r="K10" t="n">
-        <v>30.87</v>
+        <v>31.61</v>
       </c>
       <c r="L10" t="n">
-        <v>37.84</v>
+        <v>37.43</v>
       </c>
       <c r="M10" t="n">
         <v>54.66</v>
@@ -903,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-210.06</v>
+        <v>-12.64</v>
       </c>
       <c r="F11" t="n">
-        <v>200.57</v>
+        <v>72.87</v>
       </c>
       <c r="G11" t="n">
         <v>64.69</v>
       </c>
       <c r="H11" t="n">
-        <v>-193.28</v>
+        <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>220.89</v>
+        <v>73.7</v>
       </c>
       <c r="J11" t="n">
         <v>75.31</v>
       </c>
       <c r="K11" t="n">
-        <v>-212.91</v>
+        <v>-32.5</v>
       </c>
       <c r="L11" t="n">
-        <v>236.95</v>
+        <v>100.33</v>
       </c>
       <c r="M11" t="n">
         <v>75.69</v>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>288.48</v>
+        <v>286.41</v>
       </c>
       <c r="G12" t="n">
         <v>288.55</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I12" t="n">
-        <v>288.64</v>
+        <v>288.15</v>
       </c>
       <c r="J12" t="n">
         <v>288.79</v>
       </c>
       <c r="K12" t="n">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="L12" t="n">
-        <v>290</v>
+        <v>289.66</v>
       </c>
       <c r="M12" t="n">
         <v>299.3</v>
@@ -989,28 +989,28 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="F13" t="n">
-        <v>306.83</v>
+        <v>308.5</v>
       </c>
       <c r="G13" t="n">
         <v>312.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I13" t="n">
-        <v>306.54</v>
+        <v>306.62</v>
       </c>
       <c r="J13" t="n">
         <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>6.82</v>
+        <v>2.28</v>
       </c>
       <c r="L13" t="n">
-        <v>307.94</v>
+        <v>322.95</v>
       </c>
       <c r="M13" t="n">
         <v>330.4</v>
@@ -1032,28 +1032,28 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09</v>
+        <v>-1.95</v>
       </c>
       <c r="F14" t="n">
-        <v>217.02</v>
+        <v>221.44</v>
       </c>
       <c r="G14" t="n">
         <v>217.48</v>
       </c>
       <c r="H14" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="I14" t="n">
-        <v>217.33</v>
+        <v>217.23</v>
       </c>
       <c r="J14" t="n">
         <v>218.76</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.81</v>
       </c>
       <c r="L14" t="n">
-        <v>217.57</v>
+        <v>215.96</v>
       </c>
       <c r="M14" t="n">
         <v>227.08</v>
@@ -1075,28 +1075,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.59</v>
+        <v>-2.83</v>
       </c>
       <c r="F15" t="n">
-        <v>216.51</v>
+        <v>175.87</v>
       </c>
       <c r="G15" t="n">
         <v>170.97</v>
       </c>
       <c r="H15" t="n">
-        <v>-16.05</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="n">
-        <v>203.43</v>
+        <v>174.75</v>
       </c>
       <c r="J15" t="n">
         <v>175.26</v>
       </c>
       <c r="K15" t="n">
-        <v>-20.11</v>
+        <v>9.25</v>
       </c>
       <c r="L15" t="n">
-        <v>212.43</v>
+        <v>160.5</v>
       </c>
       <c r="M15" t="n">
         <v>176.82</v>
@@ -1118,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="F16" t="n">
-        <v>146.32</v>
+        <v>145.29</v>
       </c>
       <c r="G16" t="n">
         <v>147.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>2.39</v>
       </c>
       <c r="I16" t="n">
-        <v>146.8</v>
+        <v>146.26</v>
       </c>
       <c r="J16" t="n">
         <v>149.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.26</v>
+        <v>6.3</v>
       </c>
       <c r="L16" t="n">
-        <v>146.7</v>
+        <v>143.58</v>
       </c>
       <c r="M16" t="n">
         <v>153.2</v>
@@ -1161,28 +1161,28 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.01</v>
+        <v>1.57</v>
       </c>
       <c r="F17" t="n">
-        <v>196.41</v>
+        <v>178.99</v>
       </c>
       <c r="G17" t="n">
         <v>181.85</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.57</v>
+        <v>1.38</v>
       </c>
       <c r="I17" t="n">
-        <v>190.19</v>
+        <v>182.87</v>
       </c>
       <c r="J17" t="n">
         <v>185.46</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.8</v>
+        <v>14.68</v>
       </c>
       <c r="L17" t="n">
-        <v>195.79</v>
+        <v>159.4</v>
       </c>
       <c r="M17" t="n">
         <v>186.87</v>
@@ -1204,28 +1204,28 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="F18" t="n">
-        <v>125.88</v>
+        <v>124.97</v>
       </c>
       <c r="G18" t="n">
         <v>126.79</v>
       </c>
       <c r="H18" t="n">
-        <v>5.15</v>
+        <v>4.89</v>
       </c>
       <c r="I18" t="n">
-        <v>126.02</v>
+        <v>126.38</v>
       </c>
       <c r="J18" t="n">
         <v>132.88</v>
       </c>
       <c r="K18" t="n">
-        <v>7.52</v>
+        <v>9.84</v>
       </c>
       <c r="L18" t="n">
-        <v>124.1</v>
+        <v>120.99</v>
       </c>
       <c r="M18" t="n">
         <v>134.2</v>
@@ -1247,28 +1247,28 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>129.7</v>
+        <v>129</v>
       </c>
       <c r="G19" t="n">
         <v>129.86</v>
       </c>
       <c r="H19" t="n">
-        <v>4.07</v>
+        <v>3.97</v>
       </c>
       <c r="I19" t="n">
-        <v>129.83</v>
+        <v>129.97</v>
       </c>
       <c r="J19" t="n">
         <v>135.3</v>
       </c>
       <c r="K19" t="n">
-        <v>6.41</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>127.94</v>
+        <v>124.25</v>
       </c>
       <c r="M19" t="n">
         <v>136.66</v>
@@ -1290,28 +1290,28 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="F20" t="n">
-        <v>119.17</v>
+        <v>119.48</v>
       </c>
       <c r="G20" t="n">
         <v>120.69</v>
       </c>
       <c r="H20" t="n">
-        <v>5.75</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>119.17</v>
+        <v>120.38</v>
       </c>
       <c r="J20" t="n">
         <v>126.44</v>
       </c>
       <c r="K20" t="n">
-        <v>5.15</v>
+        <v>7.55</v>
       </c>
       <c r="L20" t="n">
-        <v>120.12</v>
+        <v>117.08</v>
       </c>
       <c r="M20" t="n">
         <v>126.64</v>
@@ -1333,28 +1333,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.31</v>
+        <v>0.44</v>
       </c>
       <c r="F21" t="n">
-        <v>117.43</v>
+        <v>116.55</v>
       </c>
       <c r="G21" t="n">
         <v>117.07</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.36</v>
+        <v>6.08</v>
       </c>
       <c r="I21" t="n">
-        <v>131.73</v>
+        <v>117.43</v>
       </c>
       <c r="J21" t="n">
         <v>125.04</v>
       </c>
       <c r="K21" t="n">
-        <v>2.27</v>
+        <v>6.42</v>
       </c>
       <c r="L21" t="n">
-        <v>121.86</v>
+        <v>116.69</v>
       </c>
       <c r="M21" t="n">
         <v>124.69</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="F22" t="n">
-        <v>488.65</v>
+        <v>486.6</v>
       </c>
       <c r="G22" t="n">
         <v>494.22</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>488.39</v>
+        <v>488.32</v>
       </c>
       <c r="J22" t="n">
         <v>488.19</v>
       </c>
       <c r="K22" t="n">
-        <v>4.89</v>
+        <v>8.32</v>
       </c>
       <c r="L22" t="n">
-        <v>488.74</v>
+        <v>471.16</v>
       </c>
       <c r="M22" t="n">
         <v>513.8200000000001</v>
@@ -1419,28 +1419,28 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="F23" t="n">
-        <v>705.4</v>
+        <v>705.48</v>
       </c>
       <c r="G23" t="n">
         <v>716</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>705.26</v>
+        <v>705.2</v>
       </c>
       <c r="J23" t="n">
         <v>706</v>
       </c>
       <c r="K23" t="n">
-        <v>5.18</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>706.51</v>
+        <v>682.1900000000001</v>
       </c>
       <c r="M23" t="n">
         <v>745.2</v>
@@ -1462,28 +1462,28 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.74</v>
+        <v>1.22</v>
       </c>
       <c r="F24" t="n">
-        <v>439.48</v>
+        <v>437.36</v>
       </c>
       <c r="G24" t="n">
         <v>442.98</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>439.05</v>
+        <v>438.81</v>
       </c>
       <c r="J24" t="n">
         <v>439.47</v>
       </c>
       <c r="K24" t="n">
-        <v>3.52</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>439.42</v>
+        <v>418.51</v>
       </c>
       <c r="M24" t="n">
         <v>455.7</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
-        <v>267.86</v>
+        <v>264.84</v>
       </c>
       <c r="G25" t="n">
         <v>265.43</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>267.89</v>
+        <v>267.81</v>
       </c>
       <c r="J25" t="n">
         <v>268.02</v>
       </c>
       <c r="K25" t="n">
-        <v>2.11</v>
+        <v>1.01</v>
       </c>
       <c r="L25" t="n">
-        <v>266.13</v>
+        <v>269.13</v>
       </c>
       <c r="M25" t="n">
         <v>271.9</v>
@@ -1548,28 +1548,28 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="F26" t="n">
-        <v>213.84</v>
+        <v>212.64</v>
       </c>
       <c r="G26" t="n">
         <v>216.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="I26" t="n">
-        <v>214.52</v>
+        <v>213.71</v>
       </c>
       <c r="J26" t="n">
         <v>217.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.74</v>
+        <v>5.35</v>
       </c>
       <c r="L26" t="n">
-        <v>212.38</v>
+        <v>213.25</v>
       </c>
       <c r="M26" t="n">
         <v>225.3</v>
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>242.03</v>
+        <v>237.71</v>
       </c>
       <c r="G27" t="n">
         <v>239.58</v>
       </c>
       <c r="H27" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I27" t="n">
-        <v>241.7</v>
+        <v>241.58</v>
       </c>
       <c r="J27" t="n">
         <v>242.71</v>
       </c>
       <c r="K27" t="n">
-        <v>0.95</v>
+        <v>12.27</v>
       </c>
       <c r="L27" t="n">
-        <v>243.39</v>
+        <v>215.59</v>
       </c>
       <c r="M27" t="n">
         <v>245.68</v>
@@ -1634,28 +1634,28 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.6</v>
+        <v>1.19</v>
       </c>
       <c r="F28" t="n">
-        <v>137.53</v>
+        <v>139.52</v>
       </c>
       <c r="G28" t="n">
         <v>141.19</v>
       </c>
       <c r="H28" t="n">
-        <v>5.55</v>
+        <v>5.08</v>
       </c>
       <c r="I28" t="n">
-        <v>140.03</v>
+        <v>140.72</v>
       </c>
       <c r="J28" t="n">
         <v>148.27</v>
       </c>
       <c r="K28" t="n">
-        <v>7.19</v>
+        <v>6.87</v>
       </c>
       <c r="L28" t="n">
-        <v>138.63</v>
+        <v>139.11</v>
       </c>
       <c r="M28" t="n">
         <v>149.38</v>
@@ -1677,28 +1677,28 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>1.31</v>
       </c>
       <c r="F29" t="n">
-        <v>142.49</v>
+        <v>140.28</v>
       </c>
       <c r="G29" t="n">
         <v>142.15</v>
       </c>
       <c r="H29" t="n">
-        <v>5.95</v>
+        <v>5.56</v>
       </c>
       <c r="I29" t="n">
-        <v>141.18</v>
+        <v>141.77</v>
       </c>
       <c r="J29" t="n">
         <v>150.13</v>
       </c>
       <c r="K29" t="n">
-        <v>7.83</v>
+        <v>7.64</v>
       </c>
       <c r="L29" t="n">
-        <v>138.55</v>
+        <v>138.83</v>
       </c>
       <c r="M29" t="n">
         <v>150.32</v>
@@ -1720,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.06</v>
+        <v>2.31</v>
       </c>
       <c r="F30" t="n">
-        <v>125.61</v>
+        <v>122.63</v>
       </c>
       <c r="G30" t="n">
         <v>125.53</v>
       </c>
       <c r="H30" t="n">
-        <v>8.51</v>
+        <v>7.16</v>
       </c>
       <c r="I30" t="n">
-        <v>122.27</v>
+        <v>124.07</v>
       </c>
       <c r="J30" t="n">
         <v>133.65</v>
       </c>
       <c r="K30" t="n">
-        <v>7.71</v>
+        <v>8.82</v>
       </c>
       <c r="L30" t="n">
-        <v>123.49</v>
+        <v>122</v>
       </c>
       <c r="M30" t="n">
         <v>133.8</v>
@@ -1763,28 +1763,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.48</v>
+        <v>0.49</v>
       </c>
       <c r="F31" t="n">
-        <v>152.17</v>
+        <v>140.89</v>
       </c>
       <c r="G31" t="n">
         <v>141.57</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.96</v>
+        <v>4.89</v>
       </c>
       <c r="I31" t="n">
-        <v>154.63</v>
+        <v>141.46</v>
       </c>
       <c r="J31" t="n">
         <v>148.73</v>
       </c>
       <c r="K31" t="n">
-        <v>5.77</v>
+        <v>-11.64</v>
       </c>
       <c r="L31" t="n">
-        <v>139.93</v>
+        <v>165.79</v>
       </c>
       <c r="M31" t="n">
         <v>148.5</v>
